--- a/medicine/Soins infirmiers et profession infirmière/Hildegard_Peplau/Hildegard_Peplau.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hildegard_Peplau/Hildegard_Peplau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hildegard E. Peplau, Docteur en éducation (Ed.D), née le 1er septembre 1909 à Reading (Pennsylvanie) et décédée le 17 mars 1999 à Sherman Oaks (Californie), est une théoricienne des soins infirmiers américaine dont le travail principal est repris dans son ouvrage « Relations interpersonnelles en soins infirmiers[3] » publié en 1952.
-Dans ses recherches, le Docteur Peplau a souligné l'importance de la « relation infirmière-patient »[4] comme un des fondements de la pratique infirmière.
-À son époque, ses conclusions sur l'« échange infirmière-patient » (qu'elle désigne par « give-and-take ») ont été perçues comme révolutionnaires par beaucoup : pour la première fois elle établissait un modèle de relations interpersonnelles, basé sur le besoin d'un partenariat entre l'infirmière[5] et la personne soignée, s'opposant à la passivité du patient recevant des soins médicaux (et l'infirmière agissant passivement derrière les ordres[6] du médecin). Pour beaucoup, elle a contribué à l'émergence de l'autonomisation de la profession d'infirmière, dans la lignée des infirmières théoriciennes interactionnistes, comme Florence Nightingale à son époque, en proposant un modèle de pensée infirmière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hildegard E. Peplau, Docteur en éducation (Ed.D), née le 1er septembre 1909 à Reading (Pennsylvanie) et décédée le 17 mars 1999 à Sherman Oaks (Californie), est une théoricienne des soins infirmiers américaine dont le travail principal est repris dans son ouvrage « Relations interpersonnelles en soins infirmiers » publié en 1952.
+Dans ses recherches, le Docteur Peplau a souligné l'importance de la « relation infirmière-patient » comme un des fondements de la pratique infirmière.
+À son époque, ses conclusions sur l'« échange infirmière-patient » (qu'elle désigne par « give-and-take ») ont été perçues comme révolutionnaires par beaucoup : pour la première fois elle établissait un modèle de relations interpersonnelles, basé sur le besoin d'un partenariat entre l'infirmière et la personne soignée, s'opposant à la passivité du patient recevant des soins médicaux (et l'infirmière agissant passivement derrière les ordres du médecin). Pour beaucoup, elle a contribué à l'émergence de l'autonomisation de la profession d'infirmière, dans la lignée des infirmières théoriciennes interactionnistes, comme Florence Nightingale à son époque, en proposant un modèle de pensée infirmière.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>La théorie d'une expérience partagée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'essence des théories de Peplau est la création d'une expérience partagée. Elle affirma que les infirmières peuvent y contribuer notamment par leurs observations, leurs descriptions, leurs formulations, leurs interprétations, leurs validations et leurs interventions.
 Par exemple, lorsque l'infirmière porte de l'attention à son patient, elle développe ainsi une image générale de la situation du patient ; l'infirmière valide ensuite ses impressions en les vérifiant auprès du patient avec exactitude, notamment  à l'aide d'une anamnèse. Selon Peplau, le résultat de cet échange donnera lieu pour le patient comme pour la praticienne à un apprentissage expérimental, des stratégies d'adaptation améliorées et une croissance personnelle.
@@ -547,20 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les étapes du développement de la relation infirmière-patient
-L'analyse de Peplau cherche à étudier comment chaque personne réagit face à la maladie et comment dans ce contexte la relation infirmière-patient va s'établir et évoluer.
+          <t>Les étapes du développement de la relation infirmière-patient</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'analyse de Peplau cherche à étudier comment chaque personne réagit face à la maladie et comment dans ce contexte la relation infirmière-patient va s'établir et évoluer.
 L'étape d'orientation (« orientation phase »)
 L'étape d'identification (« identification phase »)
 L'étape d'exploitation (« exploitation phase »)
-L'étape de résolution (« resolution phase »)
-Les six rôles majeurs de l'infirmière
-Les six rôles décrits par Peplau illustrent un schéma au caractère dynamique, typique selon elle de la pratique clinique infirmière.
-Le rôle de personne étrangère (« stranger role ») : la praticienne[7] accueille la personne comme une personne à part entière, avec son expérience et son histoire de vie ; elle tient compte des différents aspects, établissant un climat propice à la communication et à une confiance mutuelle.
-Le rôle de personne ressource (« ressource role ») : la praticienne répond aux questions, donne les explications et les interprétations des données médicales ; elle lui donne des informations utiles et pertinentes.
-Le rôle éducatif (« teaching role ») : la praticienne  donne des instructions et participe à l'éducation de la personne ; elle analyse le degré de compréhension de la personne et adapte le processus éducatif.
-Le rôle de leader en soins infirmiers (« active leadership role ») : la praticienne aide la personne à s'impliquer activement dans les soins qui lui sont prodigués ; elle veille à ce que la personne soit satisfaite de la prestation[8].
-Le rôle de substitut [maternel] (« surrogate role ») : la praticienne agit pour pallier les besoins d'une personne ; elle l'aide à clarifier la nature de cette relation qui peut induire une dépendance par fausse identification, en lui donnant des repères.
-Le rôle de conseillère, d'assistante psychosociale (« counseling role ») : la praticienne aide la personne à comprendre et à accepter les changements de son état de santé ; elle lui procure guidance pour améliorer son mode de vie face aux changements et l'encourage à le faire.</t>
+L'étape de résolution (« resolution phase »)</t>
         </is>
       </c>
     </row>
@@ -585,10 +596,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Le modèle de Peplau</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les six rôles majeurs de l'infirmière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les six rôles décrits par Peplau illustrent un schéma au caractère dynamique, typique selon elle de la pratique clinique infirmière.
+Le rôle de personne étrangère (« stranger role ») : la praticienne accueille la personne comme une personne à part entière, avec son expérience et son histoire de vie ; elle tient compte des différents aspects, établissant un climat propice à la communication et à une confiance mutuelle.
+Le rôle de personne ressource (« ressource role ») : la praticienne répond aux questions, donne les explications et les interprétations des données médicales ; elle lui donne des informations utiles et pertinentes.
+Le rôle éducatif (« teaching role ») : la praticienne  donne des instructions et participe à l'éducation de la personne ; elle analyse le degré de compréhension de la personne et adapte le processus éducatif.
+Le rôle de leader en soins infirmiers (« active leadership role ») : la praticienne aide la personne à s'impliquer activement dans les soins qui lui sont prodigués ; elle veille à ce que la personne soit satisfaite de la prestation.
+Le rôle de substitut [maternel] (« surrogate role ») : la praticienne agit pour pallier les besoins d'une personne ; elle l'aide à clarifier la nature de cette relation qui peut induire une dépendance par fausse identification, en lui donnant des repères.
+Le rôle de conseillère, d'assistante psychosociale (« counseling role ») : la praticienne aide la personne à comprendre et à accepter les changements de son état de santé ; elle lui procure guidance pour améliorer son mode de vie face aux changements et l'encourage à le faire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hildegard_Peplau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hildegard_Peplau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Travaux et récompenses académiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
